--- a/public/assets/downloads/CotizacionCARLOS PINEDA GARCIA.xlsx
+++ b/public/assets/downloads/CotizacionCARLOS PINEDA GARCIA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>COTIZACION Nº20240000001</t>
   </si>
@@ -50,7 +50,7 @@
     <t>PESO:</t>
   </si>
   <si>
-    <t>524.2 Kg</t>
+    <t>204 Kg</t>
   </si>
   <si>
     <t>CORREO:</t>
@@ -68,13 +68,16 @@
     <t>TELEFONO:</t>
   </si>
   <si>
+    <t>51 936 222 770</t>
+  </si>
+  <si>
     <t>CLIENTE:</t>
   </si>
   <si>
     <t>NUEVO</t>
   </si>
   <si>
-    <t>MANUAL</t>
+    <t>ANTIGUO</t>
   </si>
   <si>
     <t>VOLUMEN:</t>
@@ -177,16 +180,10 @@
     <t>VALOR PERU SOLES</t>
   </si>
   <si>
-    <t>ESTUCHE ORGANIZADOR PARA CONSOLAS</t>
-  </si>
-  <si>
-    <t>ESTUCHE DE TRANSPORTE PARA CONSOLAS</t>
-  </si>
-  <si>
-    <t>PROTECTOR DE PANTALLA PARA CONSOLAS</t>
-  </si>
-  <si>
-    <t>CASE TRANSPARENTE PARA CONSOLA</t>
+    <t>FUNDA PROTECTORA PARA TABLET</t>
+  </si>
+  <si>
+    <t>ESTUCHE DE AUDIFONOS 8 EN 1</t>
   </si>
   <si>
     <t>RESUMEN DE PAGOS DE SERVICIO DE IMPORTACIÓN</t>
@@ -640,9 +637,6 @@
     <t>CIF Valorizado</t>
   </si>
   <si>
-    <t>PROTECTOR PARA COMPUTADORAS</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -683,7 +677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="0.0\ &quot;cm&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;cm&quot;"/>
     <numFmt numFmtId="166" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
@@ -692,13 +686,14 @@
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
     <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="171" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.0\ &quot;kg&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000\ &quot;m3&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0_-"/>
-    <numFmt numFmtId="175" formatCode="0.00&quot; Kg&quot;"/>
-    <numFmt numFmtId="176" formatCode="&quot;S/.&quot; #,##0.00_-"/>
+    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="173" formatCode="0.0\ &quot;kg&quot;"/>
+    <numFmt numFmtId="174" formatCode="#,##0.000\ &quot;m3&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0_-"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot; Kg&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;S/.&quot; #,##0.00_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -943,16 +938,6 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1364,6 +1349,13 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="2" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="172" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="12" numFmtId="166" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,10 +1406,10 @@
     <xf xfId="0" fontId="2" numFmtId="14" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="172" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="173" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="173" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="174" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -1517,45 +1509,42 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="174" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="175" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="24" numFmtId="10" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="11" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="12" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="11" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="174" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="175" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="10" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="175" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="176" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="174" fillId="0" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="176" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="5" numFmtId="175" fillId="0" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="177" fillId="0" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="4" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="174" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="175" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="176" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="177" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="174" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="175" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="174" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="9" numFmtId="174" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="174" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="175" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="9" numFmtId="170" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="9" numFmtId="2" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="175" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="25" numFmtId="176" fillId="5" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="4" numFmtId="174" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2082,7 +2071,7 @@
   <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" showGridLines="false" showRowColHeaders="1" topLeftCell="A25">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2136,10 +2125,10 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2155,10 +2144,10 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2210,11 +2199,11 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2234,7 +2223,7 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="117" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -2248,12 +2237,12 @@
       <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="65" t="str">
+      <c r="I8" s="68" t="str">
         <f>+'2'!D5</f>
-        <v>ESTUCHE DE TRANSPORTE PARA CONSOLAS</v>
-      </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
+        <v>ESTUCHE DE AUDIFONOS 8 EN 1</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2270,23 +2259,23 @@
       <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="69">
         <f>+TODAY()</f>
-        <v>45917</v>
-      </c>
-      <c r="F9" s="67"/>
+        <v>45940</v>
+      </c>
+      <c r="F9" s="70"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="71">
         <f>+'2'!D6</f>
         <v>0</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="68"/>
+      <c r="K9" s="71"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2336,30 +2325,30 @@
       <c r="B11" s="16">
         <v>51912768538</v>
       </c>
-      <c r="C11" s="1">
-        <v>51936222770</v>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="115">
-        <f>'2'!G7</f>
+      <c r="I11" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="118">
+        <f>'2'!D7</f>
         <v>0</v>
       </c>
-      <c r="K11" s="69"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="20"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2387,22 +2376,22 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
+      <c r="A13" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2412,11 +2401,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2425,11 +2414,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="25">
         <f>'2'!D18</f>
-        <v>170.27394521941</v>
+        <v>771.6817644742</v>
       </c>
       <c r="K14" s="26">
-        <f>'2'!G11</f>
-        <v>646</v>
+        <f>'2'!D11</f>
+        <v>700</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2439,11 +2428,11 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="A15" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -2455,8 +2444,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="K15" s="28">
-        <f>'2'!G14 + '2'!G17</f>
-        <v>130.8147500829</v>
+        <f>'2'!D14 + '2'!D17</f>
+        <v>71.681764474202</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2467,7 +2456,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2482,7 +2471,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2530,24 +2519,24 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
+      <c r="A19" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2558,7 +2547,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2576,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="26">
-        <f>'2'!G28</f>
+        <f>'2'!D28</f>
         <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2590,7 +2579,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2607,8 +2596,8 @@
         <v>0</v>
       </c>
       <c r="K21" s="26">
-        <f>'2'!G29</f>
-        <v>124.29036001326</v>
+        <f>'2'!D29</f>
+        <v>123.46908231587</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2622,7 +2611,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2639,8 +2628,8 @@
         <v>0</v>
       </c>
       <c r="K22" s="26">
-        <f>'2'!G30</f>
-        <v>15.536295001658</v>
+        <f>'2'!D30</f>
+        <v>15.433635289484</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2651,7 +2640,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2662,14 +2651,14 @@
       <c r="H23" s="18"/>
       <c r="I23" s="32">
         <f>MAX('2'!C30:C30)</f>
-        <v>11.996136140599</v>
+        <v>40.546364710516</v>
       </c>
       <c r="J23" s="27">
         <f>'2'!D31</f>
-        <v>7.0323139375616</v>
+        <v>31.870456872785</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2680,7 +2669,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2692,10 +2681,10 @@
       <c r="I24" s="26"/>
       <c r="J24" s="25">
         <f>SUM(J20:J23)</f>
-        <v>7.0323139375616</v>
+        <v>31.870456872785</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="1"/>
@@ -2716,8 +2705,8 @@
       <c r="I25" s="34"/>
       <c r="J25" s="35"/>
       <c r="K25" s="26">
-        <f>'2'!G31</f>
-        <v>32.082449178424</v>
+        <f>'2'!D31</f>
+        <v>31.870456872785</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2728,7 +2717,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2738,14 +2727,14 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J26" s="27">
         <f>'2'!D37</f>
         <v/>
       </c>
       <c r="K26" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2756,7 +2745,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2768,10 +2757,10 @@
       <c r="I27" s="1"/>
       <c r="J27" s="25">
         <f>J24+J26</f>
-        <v>7.0323139375616</v>
+        <v>31.870456872785</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2800,23 +2789,23 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="15.6">
-      <c r="A29" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29" s="38">
         <f>K14</f>
-        <v>646</v>
+        <v>700</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2827,7 +2816,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2839,11 +2828,11 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25">
         <f>J14</f>
-        <v>170.27394521941</v>
+        <v>771.6817644742</v>
       </c>
       <c r="K30" s="26">
-        <f>IF(J11&lt;1, 376.67, 376.67*J11)</f>
-        <v>376.67</v>
+        <f>IF(J11&lt;1, 350, 350*J11)</f>
+        <v>350</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2854,7 +2843,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2870,10 +2859,10 @@
       </c>
       <c r="K31" s="26">
         <f>K20+K21+K22+K25</f>
-        <v>171.90910419335</v>
+        <v>170.77317447814</v>
       </c>
       <c r="L31" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2883,7 +2872,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -2895,11 +2884,11 @@
       <c r="I32" s="27"/>
       <c r="J32" s="27">
         <f>J27</f>
-        <v>7.0323139375616</v>
+        <v>31.870456872785</v>
       </c>
       <c r="K32" s="28">
         <f>K29+K30+K31</f>
-        <v>1194.5791041933</v>
+        <v>1220.7731744781</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2910,7 +2899,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2925,16 +2914,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
+      <c r="M33" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="7"/>
@@ -2949,41 +2938,41 @@
       <c r="J34" s="35"/>
       <c r="K34" s="26"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="79"/>
+      <c r="A35" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="82"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="N35" s="82" t="s">
+      <c r="M35" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="84" t="s">
+      <c r="N35" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="86" t="s">
+      <c r="O35" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="Q35" s="88" t="s">
+      <c r="P35" s="89" t="s">
         <v>50</v>
+      </c>
+      <c r="Q35" s="91" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2992,37 +2981,37 @@
         <v>1</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41">
         <f>'2'!C10</f>
-        <v>96</v>
-      </c>
-      <c r="G36" s="118">
+        <v>600</v>
+      </c>
+      <c r="G36" s="121">
         <f>'2'!C8</f>
-        <v>5.1958333333333</v>
+        <v>3.065</v>
       </c>
       <c r="H36" s="42"/>
-      <c r="I36" s="118">
+      <c r="I36" s="121">
         <f>'2'!C46</f>
-        <v>8.092805211836</v>
-      </c>
-      <c r="J36" s="116">
+        <v>4.235251404293</v>
+      </c>
+      <c r="J36" s="119">
         <f>'2'!C44</f>
-        <v>776.90930033626</v>
-      </c>
-      <c r="K36" s="117">
+        <v>2541.1508425758</v>
+      </c>
+      <c r="K36" s="120">
         <f>'2'!C47</f>
-        <v>29.943379283793</v>
+        <v>15.670430195884</v>
       </c>
       <c r="L36" s="42"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="89"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="92"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="39"/>
@@ -3030,30 +3019,30 @@
         <v>2</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
-      <c r="F37" s="59">
+      <c r="F37" s="62">
         <f>'2'!D10</f>
-        <v>12</v>
-      </c>
-      <c r="G37" s="118">
+        <v>400</v>
+      </c>
+      <c r="G37" s="121">
         <f>'2'!D8</f>
-        <v>11.8</v>
-      </c>
-      <c r="H37" s="58"/>
-      <c r="I37" s="119">
+        <v>1.75</v>
+      </c>
+      <c r="H37" s="61"/>
+      <c r="I37" s="122">
         <f>'2'!D46</f>
-        <v>18.379169494723</v>
-      </c>
-      <c r="J37" s="116">
+        <v>2.4181696435605</v>
+      </c>
+      <c r="J37" s="119">
         <f>'2'!D44</f>
-        <v>220.55003393668</v>
-      </c>
-      <c r="K37" s="117">
+        <v>967.26785742418</v>
+      </c>
+      <c r="K37" s="120">
         <f>'2'!D47</f>
-        <v>68.002927130476</v>
+        <v>8.9472276811737</v>
       </c>
       <c r="L37" s="42"/>
       <c r="M37" s="39">
@@ -3065,7 +3054,7 @@
       </c>
       <c r="O37" s="43">
         <f>+F37</f>
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="P37" s="44">
         <f>+H37</f>
@@ -3078,35 +3067,24 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="15.6">
       <c r="A38" s="46"/>
-      <c r="B38" s="41">
-        <v>3</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>53</v>
-      </c>
+      <c r="B38" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="41"/>
       <c r="D38" s="41"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="41">
-        <f>'2'!E10</f>
-        <v>200</v>
-      </c>
-      <c r="G38" s="118">
-        <f>'2'!E8</f>
-        <v>0.7</v>
-      </c>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63">
+        <f>SUM(F36:F37)</f>
+        <v>1000</v>
+      </c>
+      <c r="G38" s="41"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="120">
-        <f>'2'!E46</f>
-        <v>1.0902897157887</v>
-      </c>
-      <c r="J38" s="121">
-        <f>'2'!E44</f>
-        <v>218.05794315773</v>
-      </c>
-      <c r="K38" s="122">
-        <f>'2'!E47</f>
-        <v>4.034071948418</v>
-      </c>
+      <c r="I38" s="123"/>
+      <c r="J38" s="125">
+        <f>SUM(J36:J37)</f>
+        <v>3508.4187</v>
+      </c>
+      <c r="K38" s="124"/>
       <c r="L38" s="41"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3116,78 +3094,51 @@
     </row>
     <row r="39" spans="1:17" customHeight="1" ht="15.6">
       <c r="A39" s="46"/>
-      <c r="B39" s="41">
-        <v>4</v>
-      </c>
-      <c r="C39" s="41" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="41">
-        <f>'2'!F10</f>
-        <v>170</v>
-      </c>
-      <c r="G39" s="118">
-        <f>'2'!F8</f>
-        <v>2.2529411764706</v>
-      </c>
-      <c r="H39" s="42"/>
-      <c r="I39" s="120">
-        <f>'2'!F46</f>
-        <v>3.5090837071181</v>
-      </c>
-      <c r="J39" s="121">
-        <f>'2'!F44</f>
-        <v>596.54423021008</v>
-      </c>
-      <c r="K39" s="122">
-        <f>'2'!F47</f>
-        <v>12.983609716337</v>
-      </c>
-      <c r="L39" s="42"/>
-      <c r="M39" s="90" t="s">
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="91" t="s">
+      <c r="Q39" s="95"/>
+    </row>
+    <row r="40" spans="1:17" customHeight="1" ht="18">
+      <c r="A40" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="Q39" s="92"/>
-    </row>
-    <row r="40" spans="1:17" customHeight="1" ht="18">
-      <c r="A40" s="48" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="97"/>
+    </row>
+    <row r="41" spans="1:17" customHeight="1" ht="21">
+      <c r="A41" s="52" t="s">
         <v>57</v>
-      </c>
-      <c r="B40" s="124" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="124">
-        <f>SUM(F36:F39)</f>
-        <v>478</v>
-      </c>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="125">
-        <f>SUM(J36:J39)</f>
-        <v>1812.0615076408</v>
-      </c>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="94"/>
-    </row>
-    <row r="41" spans="1:17" customHeight="1" ht="21">
-      <c r="A41" s="49" t="s">
-        <v>58</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3200,22 +3151,22 @@
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="N41" s="74"/>
-      <c r="O41" s="50" t="e">
+      <c r="M41" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="77"/>
+      <c r="O41" s="53" t="e">
         <f>+J31</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P41" s="51" t="s">
+      <c r="P41" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" customHeight="1" ht="21">
+      <c r="A42" s="52" t="s">
         <v>60</v>
-      </c>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" customHeight="1" ht="21">
-      <c r="A42" s="49" t="s">
-        <v>61</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3228,22 +3179,22 @@
       <c r="J42" s="3"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="73" t="s">
+      <c r="M42" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="N42" s="77"/>
+      <c r="O42" s="53">
+        <f>+J32</f>
+        <v>31.870456872785</v>
+      </c>
+      <c r="P42" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="N42" s="74"/>
-      <c r="O42" s="50">
-        <f>+J32</f>
-        <v>7.0323139375616</v>
-      </c>
-      <c r="P42" s="51" t="s">
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" customHeight="1" ht="18">
+      <c r="A43" s="52" t="s">
         <v>63</v>
-      </c>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" customHeight="1" ht="18">
-      <c r="A43" s="49" t="s">
-        <v>64</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3263,8 +3214,8 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" customHeight="1" ht="18">
-      <c r="A44" s="49" t="s">
-        <v>65</v>
+      <c r="A44" s="52" t="s">
+        <v>64</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3277,22 +3228,22 @@
       <c r="J44" s="3"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="N44" s="95"/>
-      <c r="O44" s="96" t="e">
+      <c r="M44" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="N44" s="98"/>
+      <c r="O44" s="99" t="e">
         <f>+O41+O42+J14</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P44" s="98" t="s">
+      <c r="P44" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q44" s="102"/>
+    </row>
+    <row r="45" spans="1:17" customHeight="1" ht="18">
+      <c r="A45" s="52" t="s">
         <v>67</v>
-      </c>
-      <c r="Q44" s="99"/>
-    </row>
-    <row r="45" spans="1:17" customHeight="1" ht="18">
-      <c r="A45" s="49" t="s">
-        <v>68</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3305,15 +3256,15 @@
       <c r="J45" s="3"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="99"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="100"/>
+      <c r="P45" s="101"/>
+      <c r="Q45" s="102"/>
     </row>
     <row r="46" spans="1:17" customHeight="1" ht="18">
-      <c r="A46" s="49" t="s">
-        <v>69</v>
+      <c r="A46" s="52" t="s">
+        <v>68</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3333,8 +3284,8 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" customHeight="1" ht="18">
-      <c r="A47" s="49" t="s">
-        <v>70</v>
+      <c r="A47" s="52" t="s">
+        <v>69</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3354,8 +3305,8 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" customHeight="1" ht="18">
-      <c r="A48" s="49" t="s">
-        <v>71</v>
+      <c r="A48" s="52" t="s">
+        <v>70</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3508,19 +3459,19 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" customHeight="1" ht="21">
-      <c r="A56" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
+      <c r="A56" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="103"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3586,8 +3537,8 @@
       <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="52" t="s">
-        <v>73</v>
+      <c r="A60" s="55" t="s">
+        <v>72</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3607,8 +3558,8 @@
       <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="52" t="s">
-        <v>74</v>
+      <c r="A61" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3629,7 +3580,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
@@ -3649,8 +3600,8 @@
       <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="52" t="s">
-        <v>76</v>
+      <c r="A63" s="55" t="s">
+        <v>75</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3670,8 +3621,8 @@
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="52" t="s">
-        <v>77</v>
+      <c r="A64" s="55" t="s">
+        <v>76</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3692,7 +3643,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -3712,8 +3663,8 @@
       <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="52" t="s">
-        <v>79</v>
+      <c r="A66" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3733,8 +3684,8 @@
       <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="52" t="s">
-        <v>80</v>
+      <c r="A67" s="55" t="s">
+        <v>79</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3754,8 +3705,8 @@
       <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="52" t="s">
-        <v>81</v>
+      <c r="A68" s="55" t="s">
+        <v>80</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3775,8 +3726,8 @@
       <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="52" t="s">
-        <v>82</v>
+      <c r="A69" s="55" t="s">
+        <v>81</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3796,8 +3747,8 @@
       <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="52" t="s">
-        <v>83</v>
+      <c r="A70" s="55" t="s">
+        <v>82</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3817,8 +3768,8 @@
       <c r="Q70" s="1"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="52" t="s">
-        <v>84</v>
+      <c r="A71" s="55" t="s">
+        <v>83</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3838,8 +3789,8 @@
       <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="52" t="s">
-        <v>85</v>
+      <c r="A72" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3859,8 +3810,8 @@
       <c r="Q72" s="1"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="52" t="s">
-        <v>86</v>
+      <c r="A73" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3937,8 +3888,8 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="52" t="s">
-        <v>87</v>
+      <c r="A77" s="55" t="s">
+        <v>86</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3958,8 +3909,8 @@
       <c r="Q77" s="1"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="53" t="s">
-        <v>88</v>
+      <c r="A78" s="56" t="s">
+        <v>87</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3979,8 +3930,8 @@
       <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="52" t="s">
-        <v>89</v>
+      <c r="A79" s="55" t="s">
+        <v>88</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4000,8 +3951,8 @@
       <c r="Q79" s="1"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="54" t="s">
-        <v>90</v>
+      <c r="A80" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
@@ -4021,8 +3972,8 @@
       <c r="Q80" s="1"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="52" t="s">
-        <v>91</v>
+      <c r="A81" s="55" t="s">
+        <v>90</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4043,7 +3994,7 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
@@ -4063,8 +4014,8 @@
       <c r="Q82" s="1"/>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="52" t="s">
-        <v>93</v>
+      <c r="A83" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4084,8 +4035,8 @@
       <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="52" t="s">
-        <v>94</v>
+      <c r="A84" s="55" t="s">
+        <v>93</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4105,8 +4056,8 @@
       <c r="Q84" s="1"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="52" t="s">
-        <v>95</v>
+      <c r="A85" s="55" t="s">
+        <v>94</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4126,8 +4077,8 @@
       <c r="Q85" s="1"/>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="52" t="s">
-        <v>96</v>
+      <c r="A86" s="55" t="s">
+        <v>95</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4147,8 +4098,8 @@
       <c r="Q86" s="1"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="52" t="s">
-        <v>97</v>
+      <c r="A87" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4225,8 +4176,8 @@
       <c r="Q90" s="1"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="52" t="s">
-        <v>98</v>
+      <c r="A91" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4246,8 +4197,8 @@
       <c r="Q91" s="1"/>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="52" t="s">
-        <v>99</v>
+      <c r="A92" s="55" t="s">
+        <v>98</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4267,8 +4218,8 @@
       <c r="Q92" s="1"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="55" t="s">
-        <v>100</v>
+      <c r="A93" s="58" t="s">
+        <v>99</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4288,8 +4239,8 @@
       <c r="Q93" s="1"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="55" t="s">
-        <v>101</v>
+      <c r="A94" s="58" t="s">
+        <v>100</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4309,8 +4260,8 @@
       <c r="Q94" s="1"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="55" t="s">
-        <v>102</v>
+      <c r="A95" s="58" t="s">
+        <v>101</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4407,7 +4358,7 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="1"/>
-      <c r="B100" s="55"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4426,7 +4377,7 @@
     </row>
     <row r="101" spans="1:17" customHeight="1" ht="15.6">
       <c r="A101" s="1"/>
-      <c r="B101" s="56"/>
+      <c r="B101" s="59"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4445,7 +4396,7 @@
     </row>
     <row r="102" spans="1:17" customHeight="1" ht="15.6">
       <c r="A102" s="1"/>
-      <c r="B102" s="56"/>
+      <c r="B102" s="59"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4578,7 +4529,7 @@
     </row>
     <row r="109" spans="1:17" customHeight="1" ht="15.6">
       <c r="A109" s="1"/>
-      <c r="B109" s="57"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4713,12 +4664,6 @@
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="E11">
@@ -4749,823 +4694,508 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B40" sqref="B40:I47"/>
+      <selection activeCell="B40" sqref="B40:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="39.99" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="42.418" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="42.418" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="36.42" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="32.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="34.135" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="32.992" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
-      <c r="B3" s="102" t="s">
+    <row r="3" spans="1:9">
+      <c r="B3" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="105" t="s">
+      <c r="C5" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="104"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="107" t="s">
+      <c r="C6" s="104">
+        <v>0</v>
+      </c>
+      <c r="D6" s="104">
+        <v>0</v>
+      </c>
+      <c r="E6" s="113">
+        <v>204.0</v>
+      </c>
+      <c r="F6" s="104"/>
+      <c r="H6" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="107" t="s">
+      <c r="I6" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="101"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="101" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C7" s="104">
         <v>0</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D7" s="104">
         <v>0</v>
       </c>
-      <c r="E6" s="101">
-        <v>0</v>
-      </c>
-      <c r="F6" s="101">
-        <v>0</v>
-      </c>
-      <c r="G6" s="101">
-        <v>0</v>
-      </c>
-      <c r="H6" s="110">
-        <v>524.2</v>
-      </c>
-      <c r="I6" s="101"/>
-      <c r="K6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="101" t="s">
+      <c r="E7" s="114">
+        <v>0.62</v>
+      </c>
+      <c r="F7" s="104"/>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="101">
-        <v>0</v>
-      </c>
-      <c r="D7" s="101">
-        <v>0</v>
-      </c>
-      <c r="E7" s="101">
-        <v>0</v>
-      </c>
-      <c r="F7" s="101">
-        <v>0</v>
-      </c>
-      <c r="G7" s="101">
-        <v>0</v>
-      </c>
-      <c r="H7" s="111">
-        <v>1.4</v>
-      </c>
-      <c r="I7" s="101"/>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7">
-        <v>376.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="101" t="s">
+      <c r="C8" s="111">
+        <v>3.065</v>
+      </c>
+      <c r="D8" s="111">
+        <v>1.75</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="108">
-        <v>5.1958333333333</v>
-      </c>
-      <c r="D8" s="108">
-        <v>11.8</v>
-      </c>
-      <c r="E8" s="108">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="108">
-        <v>2.2529411764706</v>
-      </c>
-      <c r="G8" s="108">
-        <v>8.075</v>
-      </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="106" t="s">
+      <c r="C9" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="101" t="s">
+      <c r="C10" s="104">
+        <v>600.0</v>
+      </c>
+      <c r="D10" s="104">
+        <v>400.0</v>
+      </c>
+      <c r="E10" s="104">
+        <f>SUM(C10:D10)</f>
+        <v>1000</v>
+      </c>
+      <c r="F10" s="104"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="101">
-        <v>96.0</v>
-      </c>
-      <c r="D10" s="101">
-        <v>12.0</v>
-      </c>
-      <c r="E10" s="101">
-        <v>200.0</v>
-      </c>
-      <c r="F10" s="101">
-        <v>170.0</v>
-      </c>
-      <c r="G10" s="101">
-        <v>80.0</v>
-      </c>
-      <c r="H10" s="101">
-        <f>SUM(C10:G10)</f>
-        <v>558</v>
-      </c>
-      <c r="I10" s="101"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="101" t="s">
+      <c r="C11" s="111">
+        <f>C8*C10</f>
+        <v>1839</v>
+      </c>
+      <c r="D11" s="111">
+        <f>D8*D10</f>
+        <v>700</v>
+      </c>
+      <c r="E11" s="104">
+        <f>SUM(C11:D11)</f>
+        <v>2539</v>
+      </c>
+      <c r="F11" s="104"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="108">
-        <f>C8*C10</f>
-        <v>498.8</v>
-      </c>
-      <c r="D11" s="108">
-        <f>D8*D10</f>
-        <v>141.6</v>
-      </c>
-      <c r="E11" s="108">
-        <f>E8*E10</f>
-        <v>140</v>
-      </c>
-      <c r="F11" s="108">
-        <f>F8*F10</f>
-        <v>383</v>
-      </c>
-      <c r="G11" s="108">
-        <f>G8*G10</f>
-        <v>646</v>
-      </c>
-      <c r="H11" s="101">
-        <f>SUM(C11:G11)</f>
-        <v>1809.4</v>
-      </c>
-      <c r="I11" s="101"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="108">
+      <c r="C12" s="111">
         <f>C10*C9</f>
         <v>0</v>
       </c>
-      <c r="D12" s="108">
+      <c r="D12" s="111">
         <f>D10*D9</f>
         <v>0</v>
       </c>
-      <c r="E12" s="108">
-        <f>E10*E9</f>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="112">
+        <f>C11/E11</f>
+        <v>0.72430090586845</v>
+      </c>
+      <c r="D13" s="112">
+        <f>D11/E11</f>
+        <v>0.27569909413155</v>
+      </c>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="111">
+        <f>E14*C13</f>
+        <v>152.10319023237</v>
+      </c>
+      <c r="D14" s="111">
+        <f>E14*D13</f>
+        <v>57.896809767625</v>
+      </c>
+      <c r="E14" s="104">
+        <f>IF(E7&lt;1, I7*0.6, I7*0.6*E7)</f>
+        <v>210</v>
+      </c>
+      <c r="F14" s="104"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="111">
+        <f>C11+C14</f>
+        <v>1991.1031902324</v>
+      </c>
+      <c r="D15" s="111">
+        <f>D11+D14</f>
+        <v>757.89680976763</v>
+      </c>
+      <c r="E15" s="115">
+        <f>SUM(C15:D15)</f>
+        <v>2749</v>
+      </c>
+      <c r="F15" s="104"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="111">
+        <f>C12+C14</f>
+        <v>152.10319023237</v>
+      </c>
+      <c r="D16" s="111">
+        <f>D12+D14</f>
+        <v>57.896809767625</v>
+      </c>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="111">
+        <f>IF(E11&gt;5000,100*C13,50*C13)</f>
+        <v>36.215045293423</v>
+      </c>
+      <c r="D17" s="111">
+        <f>IF(E11&gt;5000,100*D13,50*D13)</f>
+        <v>13.784954706577</v>
+      </c>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="111">
+        <f>C15+C17</f>
+        <v>2027.3182355258</v>
+      </c>
+      <c r="D18" s="111">
+        <f>D15+D17</f>
+        <v>771.6817644742</v>
+      </c>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="111">
+        <f>C16+C17</f>
+        <v>188.3182355258</v>
+      </c>
+      <c r="D19" s="111">
+        <f>D16+D17</f>
+        <v>71.681764474202</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="106">
         <v>0</v>
       </c>
-      <c r="F12" s="108">
-        <f>F10*F9</f>
+      <c r="D26" s="106">
         <v>0</v>
       </c>
-      <c r="G12" s="108">
-        <f>G10*G9</f>
+      <c r="E26" s="106">
+        <f>SUM(C26:D26)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="109">
-        <f>C11/H11</f>
-        <v>0.2756714933127</v>
-      </c>
-      <c r="D13" s="109">
-        <f>D11/H11</f>
-        <v>0.078257986072731</v>
-      </c>
-      <c r="E13" s="109">
-        <f>E11/H11</f>
-        <v>0.077373715043661</v>
-      </c>
-      <c r="F13" s="109">
-        <f>F11/H11</f>
-        <v>0.21167237758373</v>
-      </c>
-      <c r="G13" s="109">
-        <f>G11/H11</f>
-        <v>0.35702442798718</v>
-      </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="108">
-        <f>H14*C13</f>
-        <v>87.223232364319</v>
-      </c>
-      <c r="D14" s="108">
-        <f>H14*D13</f>
-        <v>24.761045915773</v>
-      </c>
-      <c r="E14" s="108">
-        <f>H14*E13</f>
-        <v>24.481260086216</v>
-      </c>
-      <c r="F14" s="108">
-        <f>H14*F13</f>
-        <v>66.97373295015</v>
-      </c>
-      <c r="G14" s="108">
-        <f>H14*G13</f>
-        <v>112.96352868354</v>
-      </c>
-      <c r="H14" s="101">
-        <f>IF(H7&lt;1, L7*0.6, L7*0.6*H7)</f>
-        <v>316.4028</v>
-      </c>
-      <c r="I14" s="101"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="108">
-        <f>C11+C14</f>
-        <v>586.02323236432</v>
-      </c>
-      <c r="D15" s="108">
-        <f>D11+D14</f>
-        <v>166.36104591577</v>
-      </c>
-      <c r="E15" s="108">
-        <f>E11+E14</f>
-        <v>164.48126008622</v>
-      </c>
-      <c r="F15" s="108">
-        <f>F11+F14</f>
-        <v>449.97373295015</v>
-      </c>
-      <c r="G15" s="108">
-        <f>G11+G14</f>
-        <v>758.96352868354</v>
-      </c>
-      <c r="H15" s="112">
-        <f>SUM(C15:G15)</f>
-        <v>2125.8028</v>
-      </c>
-      <c r="I15" s="101"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="108">
-        <f>C12+C14</f>
-        <v>87.223232364319</v>
-      </c>
-      <c r="D16" s="108">
-        <f>D12+D14</f>
-        <v>24.761045915773</v>
-      </c>
-      <c r="E16" s="108">
-        <f>E12+E14</f>
-        <v>24.481260086216</v>
-      </c>
-      <c r="F16" s="108">
-        <f>F12+F14</f>
-        <v>66.97373295015</v>
-      </c>
-      <c r="G16" s="108">
-        <f>G12+G14</f>
-        <v>112.96352868354</v>
-      </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="B17" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="108">
-        <f>IF(H11&gt;5000,100*C13,50*C13)</f>
-        <v>13.783574665635</v>
-      </c>
-      <c r="D17" s="108">
-        <f>IF(H11&gt;5000,100*D13,50*D13)</f>
-        <v>3.9128993036366</v>
-      </c>
-      <c r="E17" s="108">
-        <f>IF(H11&gt;5000,100*E13,50*E13)</f>
-        <v>3.868685752183</v>
-      </c>
-      <c r="F17" s="108">
-        <f>IF(H11&gt;5000,100*F13,50*F13)</f>
-        <v>10.583618879187</v>
-      </c>
-      <c r="G17" s="108">
-        <f>IF(H11&gt;5000,100*G13,50*G13)</f>
-        <v>17.851221399359</v>
-      </c>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="B18" s="101" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="108">
-        <f>C15+C17</f>
-        <v>599.80680702995</v>
-      </c>
-      <c r="D18" s="108">
-        <f>D15+D17</f>
-        <v>170.27394521941</v>
-      </c>
-      <c r="E18" s="108">
-        <f>E15+E17</f>
-        <v>168.3499458384</v>
-      </c>
-      <c r="F18" s="108">
-        <f>F15+F17</f>
-        <v>460.55735182934</v>
-      </c>
-      <c r="G18" s="108">
-        <f>G15+G17</f>
-        <v>776.8147500829</v>
-      </c>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19" s="106" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="108">
-        <f>C16+C17</f>
-        <v>101.00680702995</v>
-      </c>
-      <c r="D19" s="108">
-        <f>D16+D17</f>
-        <v>28.67394521941</v>
-      </c>
-      <c r="E19" s="108">
-        <f>E16+E17</f>
-        <v>28.349945838399</v>
-      </c>
-      <c r="F19" s="108">
-        <f>F16+F17</f>
-        <v>77.557351829336</v>
-      </c>
-      <c r="G19" s="108">
-        <f>G16+G17</f>
-        <v>130.8147500829</v>
-      </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="B23" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="103">
-        <v>0</v>
-      </c>
-      <c r="D26" s="103">
-        <v>0</v>
-      </c>
-      <c r="E26" s="103">
-        <v>0</v>
-      </c>
-      <c r="F26" s="103">
-        <v>0</v>
-      </c>
-      <c r="G26" s="103">
-        <v>0</v>
-      </c>
-      <c r="H26" s="103">
-        <f>SUM(C26:G26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="C27" s="104">
+    </row>
+    <row r="27" spans="1:9">
+      <c r="C27" s="107">
         <v>0.0</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="107">
         <v>0.0</v>
       </c>
-      <c r="E27" s="104">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="104">
-        <v>0.0</v>
-      </c>
-      <c r="G27" s="104">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="B28" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="108">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="111">
         <f>MAX(C19,C18)*C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="108">
+      <c r="D28" s="111">
         <f>MAX(D19,D18)*D27</f>
         <v>0</v>
       </c>
-      <c r="E28" s="108">
-        <f>MAX(E19,E18)*E27</f>
+      <c r="E28" s="111">
+        <f>SUM(C28:D28)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="108">
-        <f>MAX(F19,F18)*F27</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="108">
-        <f>MAX(G19,G18)*G27</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="108">
-        <f>SUM(C28:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="101"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="B29" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="108">
+      <c r="F28" s="104"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="111">
         <f>0.16*(MAX(C19,C18)+C28)</f>
-        <v>95.969089124792</v>
-      </c>
-      <c r="D29" s="108">
+        <v>324.37091768413</v>
+      </c>
+      <c r="D29" s="111">
         <f>0.16*(MAX(D19,D18)+D28)</f>
-        <v>27.243831235106</v>
-      </c>
-      <c r="E29" s="108">
-        <f>0.16*(MAX(E19,E18)+E28)</f>
-        <v>26.935991334144</v>
-      </c>
-      <c r="F29" s="108">
-        <f>0.16*(MAX(F19,F18)+F28)</f>
-        <v>73.689176292694</v>
-      </c>
-      <c r="G29" s="108">
-        <f>0.16*(MAX(G19,G18)+G28)</f>
-        <v>124.29036001326</v>
-      </c>
-      <c r="H29" s="108">
-        <f>SUM(C29:G29)</f>
-        <v>348.128448</v>
-      </c>
-      <c r="I29" s="101"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="B30" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="108">
+        <v>123.46908231587</v>
+      </c>
+      <c r="E29" s="111">
+        <f>SUM(C29:D29)</f>
+        <v>447.84</v>
+      </c>
+      <c r="F29" s="104"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="111">
         <f>0.02*(MAX(C19,C18)+C28)</f>
-        <v>11.996136140599</v>
-      </c>
-      <c r="D30" s="108">
+        <v>40.546364710516</v>
+      </c>
+      <c r="D30" s="111">
         <f>0.02*(MAX(D19,D18)+D28)</f>
-        <v>3.4054789043882</v>
-      </c>
-      <c r="E30" s="108">
-        <f>0.02*(MAX(E19,E18)+E28)</f>
-        <v>3.366998916768</v>
-      </c>
-      <c r="F30" s="108">
-        <f>0.02*(MAX(F19,F18)+F28)</f>
-        <v>9.2111470365868</v>
-      </c>
-      <c r="G30" s="108">
-        <f>0.02*(MAX(G19,G18)+G28)</f>
-        <v>15.536295001658</v>
-      </c>
-      <c r="H30" s="108">
-        <f>SUM(C30:G30)</f>
-        <v>43.516056</v>
-      </c>
-      <c r="I30" s="101"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="B31" s="101" t="s">
+        <v>15.433635289484</v>
+      </c>
+      <c r="E30" s="111">
+        <f>SUM(C30:D30)</f>
+        <v>55.98</v>
+      </c>
+      <c r="F30" s="104"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="111">
+        <f>0.035*(MAX(C18,C19) +C28+C29+C30)</f>
+        <v>83.728243127215</v>
+      </c>
+      <c r="D31" s="111">
+        <f>0.035*(MAX(D18,D19) +D28+D29+D30)</f>
+        <v>31.870456872785</v>
+      </c>
+      <c r="E31" s="111">
+        <f>SUM(C31:D31)</f>
+        <v>115.5987</v>
+      </c>
+      <c r="F31" s="104"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="111">
+        <f>SUM(C28:C31)</f>
+        <v>448.64552552186</v>
+      </c>
+      <c r="D32" s="111">
+        <f>SUM(D28:D31)</f>
+        <v>170.77317447814</v>
+      </c>
+      <c r="E32" s="111">
+        <f>SUM(E28:E31)</f>
+        <v>619.4187</v>
+      </c>
+      <c r="F32" s="104"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="108">
-        <f>0.035*(MAX(C18,C19) +C28+C29+C30)</f>
-        <v>24.772021130337</v>
-      </c>
-      <c r="D31" s="108">
-        <f>0.035*(MAX(D18,D19) +D28+D29+D30)</f>
-        <v>7.0323139375616</v>
-      </c>
-      <c r="E31" s="108">
-        <f>0.035*(MAX(E18,E19) +E28+E29+E30)</f>
-        <v>6.9528527631259</v>
-      </c>
-      <c r="F31" s="108">
-        <f>0.035*(MAX(F18,F19) +F28+F29+F30)</f>
-        <v>19.021018630552</v>
-      </c>
-      <c r="G31" s="108">
-        <f>0.035*(MAX(G18,G19) +G28+G29+G30)</f>
-        <v>32.082449178424</v>
-      </c>
-      <c r="H31" s="108">
-        <f>SUM(C31:G31)</f>
-        <v>89.86065564</v>
-      </c>
-      <c r="I31" s="101"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="B32" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="108">
-        <f>SUM(C28:C31)</f>
-        <v>132.73724639573</v>
-      </c>
-      <c r="D32" s="108">
-        <f>SUM(D28:D31)</f>
-        <v>37.681624077055</v>
-      </c>
-      <c r="E32" s="108">
-        <f>SUM(E28:E31)</f>
-        <v>37.255843014038</v>
-      </c>
-      <c r="F32" s="108">
-        <f>SUM(F28:F31)</f>
-        <v>101.92134195983</v>
-      </c>
-      <c r="G32" s="108">
-        <f>SUM(G28:G31)</f>
-        <v>171.90910419335</v>
-      </c>
-      <c r="H32" s="108">
-        <f>SUM(H28:H31)</f>
-        <v>481.50515964</v>
-      </c>
-      <c r="I32" s="101"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="B37" s="102" t="s">
+      <c r="C40" s="111">
+        <f>C13*E40</f>
+        <v>101.40212682158</v>
+      </c>
+      <c r="D40" s="111">
+        <f>D13*E40</f>
+        <v>38.597873178417</v>
+      </c>
+      <c r="E40" s="104">
+        <f>IF(E7&lt;1, I7*0.4, I7*0.4*E7)</f>
+        <v>140</v>
+      </c>
+      <c r="F40" s="104"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="104"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="B40" s="101" t="s">
+      <c r="C44" s="111">
+        <f>SUM(C15,C40,C32,(C26))</f>
+        <v>2541.1508425758</v>
+      </c>
+      <c r="D44" s="111">
+        <f>SUM(D15,D40,D32,(D26))</f>
+        <v>967.26785742418</v>
+      </c>
+      <c r="E44" s="111">
+        <f>SUM(C44:D44)</f>
+        <v>3508.4187</v>
+      </c>
+      <c r="F44" s="104"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="108">
-        <f>C13*H40</f>
-        <v>58.148821576213</v>
-      </c>
-      <c r="D40" s="108">
-        <f>D13*H40</f>
-        <v>16.507363943849</v>
-      </c>
-      <c r="E40" s="108">
-        <f>E13*H40</f>
-        <v>16.320840057478</v>
-      </c>
-      <c r="F40" s="108">
-        <f>F13*H40</f>
-        <v>44.6491553001</v>
-      </c>
-      <c r="G40" s="108">
-        <f>G13*H40</f>
-        <v>75.309019122361</v>
-      </c>
-      <c r="H40" s="101">
-        <f>IF(H7&lt;1, L7*0.4, L7*0.4*H7)</f>
-        <v>210.9352</v>
-      </c>
-      <c r="I40" s="101"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="B43" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43" s="101" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" s="101"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="B44" s="101" t="s">
+      <c r="C45" s="104">
+        <v>600.0</v>
+      </c>
+      <c r="D45" s="104">
+        <v>400.0</v>
+      </c>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="108">
-        <f>SUM(C15,C40,C32,(C26))</f>
-        <v>776.90930033626</v>
-      </c>
-      <c r="D44" s="108">
-        <f>SUM(D15,D40,D32,(D26))</f>
-        <v>220.55003393668</v>
-      </c>
-      <c r="E44" s="108">
-        <f>SUM(E15,E40,E32,(E26))</f>
-        <v>218.05794315773</v>
-      </c>
-      <c r="F44" s="108">
-        <f>SUM(F15,F40,F32,(F26))</f>
-        <v>596.54423021008</v>
-      </c>
-      <c r="G44" s="108">
-        <f>SUM(G15,G40,G32,(G26))</f>
-        <v>1006.1816519992</v>
-      </c>
-      <c r="H44" s="108">
-        <f>SUM(C44:G44)</f>
-        <v>2818.24315964</v>
-      </c>
-      <c r="I44" s="101"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="B45" s="101" t="s">
+      <c r="C46" s="111">
+        <f>SUM(C44/C45)</f>
+        <v>4.235251404293</v>
+      </c>
+      <c r="D46" s="111">
+        <f>SUM(D44/D45)</f>
+        <v>2.4181696435605</v>
+      </c>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="101">
-        <v>96.0</v>
-      </c>
-      <c r="D45" s="101">
-        <v>12.0</v>
-      </c>
-      <c r="E45" s="101">
-        <v>200.0</v>
-      </c>
-      <c r="F45" s="101">
-        <v>170.0</v>
-      </c>
-      <c r="G45" s="101">
-        <v>80.0</v>
-      </c>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="B46" s="101" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="108">
-        <f>SUM(C44/C45)</f>
-        <v>8.092805211836</v>
-      </c>
-      <c r="D46" s="108">
-        <f>SUM(D44/D45)</f>
-        <v>18.379169494723</v>
-      </c>
-      <c r="E46" s="108">
-        <f>SUM(E44/E45)</f>
-        <v>1.0902897157887</v>
-      </c>
-      <c r="F46" s="108">
-        <f>SUM(F44/F45)</f>
-        <v>3.5090837071181</v>
-      </c>
-      <c r="G46" s="108">
-        <f>SUM(G44/G45)</f>
-        <v>12.577270649991</v>
-      </c>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="B47" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="113">
+      <c r="C47" s="116">
         <f>C46*3.7</f>
-        <v>29.943379283793</v>
-      </c>
-      <c r="D47" s="113">
+        <v>15.670430195884</v>
+      </c>
+      <c r="D47" s="116">
         <f>D46*3.7</f>
-        <v>68.002927130476</v>
-      </c>
-      <c r="E47" s="113">
-        <f>E46*3.7</f>
-        <v>4.034071948418</v>
-      </c>
-      <c r="F47" s="113">
-        <f>F46*3.7</f>
-        <v>12.983609716337</v>
-      </c>
-      <c r="G47" s="113">
-        <f>G46*3.7</f>
-        <v>46.535901404965</v>
-      </c>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
+        <v>8.9472276811737</v>
+      </c>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
     </row>
   </sheetData>
   <mergeCells>
